--- a/compiled_xl.xlsx
+++ b/compiled_xl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anyaaggarwal/Documents/GitHub/covid19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E3AED-9556-1B48-A569-317A7AA83FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE6259-D74F-C24B-A57D-B5C848FD1092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{DAB07334-F716-0641-AAEC-B67C15E1C4EA}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4478149D-03F6-A341-B351-66D274C95B5D}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,6 +545,10 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <f xml:space="preserve"> C3-C2</f>
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -559,6 +563,10 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="0" xml:space="preserve"> C4-C3</f>
+        <v>0</v>
+      </c>
       <c r="I4">
         <v>1</v>
       </c>
@@ -573,6 +581,10 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="I5">
         <v>2</v>
       </c>
@@ -587,6 +599,10 @@
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I6">
         <v>2</v>
       </c>
@@ -601,6 +617,10 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I7">
         <v>2</v>
       </c>
@@ -615,6 +635,10 @@
       <c r="C8">
         <v>2</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>2</v>
       </c>
@@ -629,6 +653,10 @@
       <c r="C9">
         <v>3</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="I9">
         <v>3</v>
       </c>
@@ -643,6 +671,10 @@
       <c r="C10">
         <v>7</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="I10">
         <v>6.9999999999999902</v>
       </c>
@@ -657,6 +689,10 @@
       <c r="C11">
         <v>13</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="I11">
         <v>13</v>
       </c>
@@ -671,6 +707,10 @@
       <c r="C12">
         <v>19</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="I12">
         <v>18.999999999999901</v>
       </c>
@@ -685,6 +725,10 @@
       <c r="C13">
         <v>25</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="H13">
         <v>144.38764526582801</v>
       </c>
@@ -717,6 +761,10 @@
       <c r="C14">
         <v>25</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H14">
         <v>155.035472212093</v>
       </c>
@@ -727,15 +775,15 @@
         <v>5.2014188884837198</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K77" si="0" xml:space="preserve"> ABS(H14-I14)</f>
+        <f t="shared" ref="K14:K77" si="1" xml:space="preserve"> ABS(H14-I14)</f>
         <v>130.03547221209311</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L77" si="1" xml:space="preserve"> (I14-H14)^2</f>
+        <f t="shared" ref="L14:L77" si="2" xml:space="preserve"> (I14-H14)^2</f>
         <v>16909.224033422041</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M77" si="2" xml:space="preserve"> SQRT(L14)</f>
+        <f t="shared" ref="M14:M77" si="3" xml:space="preserve"> SQRT(L14)</f>
         <v>130.03547221209311</v>
       </c>
     </row>
@@ -749,6 +797,10 @@
       <c r="C15">
         <v>34</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="H15">
         <v>181.52503327591299</v>
       </c>
@@ -759,15 +811,15 @@
         <v>4.3389715669386302</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>147.52503327591299</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21763.635443059236</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147.52503327591299</v>
       </c>
     </row>
@@ -781,6 +833,10 @@
       <c r="C16">
         <v>52</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="H16">
         <v>213.12271217320199</v>
       </c>
@@ -791,15 +847,15 @@
         <v>3.09851369563851</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>161.12271217320199</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25960.528378048493</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>161.12271217320199</v>
       </c>
     </row>
@@ -813,6 +869,10 @@
       <c r="C17">
         <v>77</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="H17">
         <v>234.11199337419299</v>
       </c>
@@ -823,15 +883,15 @@
         <v>2.04041549836615</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>157.11199337419299</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24684.178462012464</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157.11199337419299</v>
       </c>
     </row>
@@ -845,6 +905,10 @@
       <c r="C18">
         <v>98</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="H18">
         <v>250.18432520691499</v>
       </c>
@@ -855,15 +919,15 @@
         <v>1.55290127762158</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>152.18432520691499</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23160.068838684063</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152.18432520691499</v>
       </c>
     </row>
@@ -877,6 +941,10 @@
       <c r="C19">
         <v>121</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="H19">
         <v>349.126255402894</v>
       </c>
@@ -887,15 +955,15 @@
         <v>1.88534095374292</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>228.126255402894</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52041.588404146423</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>228.126255402894</v>
       </c>
     </row>
@@ -909,6 +977,10 @@
       <c r="C20">
         <v>200</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
       <c r="H20">
         <v>387.57277921693702</v>
       </c>
@@ -919,15 +991,15 @@
         <v>0.93786389608468501</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>187.57277921693802</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35183.547503166177</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>187.57277921693802</v>
       </c>
     </row>
@@ -941,6 +1013,10 @@
       <c r="C21">
         <v>234</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="H21">
         <v>451.69691987103897</v>
       </c>
@@ -951,15 +1027,15 @@
         <v>0.93032871739760403</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>217.69691987103897</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47391.948921337564</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>217.69691987103897</v>
       </c>
     </row>
@@ -973,6 +1049,10 @@
       <c r="C22">
         <v>291</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="H22">
         <v>613.90915329111897</v>
       </c>
@@ -983,15 +1063,15 @@
         <v>1.1096534477358</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>322.90915329111897</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104270.32127918737</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>322.90915329111897</v>
       </c>
     </row>
@@ -1005,6 +1085,10 @@
       <c r="C23">
         <v>428</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
       <c r="H23">
         <v>838.14547702459902</v>
       </c>
@@ -1015,15 +1099,15 @@
         <v>12</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410.14547702460004</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168219.31232373673</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>410.14547702460004</v>
       </c>
     </row>
@@ -1037,6 +1121,10 @@
       <c r="C24">
         <v>621</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
       <c r="H24">
         <v>1197.97007790617</v>
       </c>
@@ -1047,15 +1135,15 @@
         <v>0.92909835411622999</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>576.97007790616999</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>332894.47079905187</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>576.97007790616999</v>
       </c>
     </row>
@@ -1069,6 +1157,10 @@
       <c r="C25">
         <v>904</v>
       </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
       <c r="H25">
         <v>1423.4227504895</v>
       </c>
@@ -1079,15 +1171,15 @@
         <v>0.57458268859458494</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>519.42275048950103</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>269799.99372607842</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>519.42275048950103</v>
       </c>
     </row>
@@ -1101,6 +1193,10 @@
       <c r="C26">
         <v>1128</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
       <c r="H26">
         <v>1871.22084321176</v>
       </c>
@@ -1111,15 +1207,15 @@
         <v>0.658883726251562</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>743.22084321175998</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>552377.22178439947</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>743.22084321175998</v>
       </c>
     </row>
@@ -1133,6 +1229,10 @@
       <c r="C27">
         <v>1546</v>
       </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>418</v>
+      </c>
       <c r="H27">
         <v>2200.6230640721701</v>
       </c>
@@ -1143,15 +1243,15 @@
         <v>0.423430183746555</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>654.62306407218011</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>428531.35601524962</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>654.62306407218011</v>
       </c>
     </row>
@@ -1165,6 +1265,10 @@
       <c r="C28">
         <v>1891</v>
       </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
       <c r="H28">
         <v>2570.7334308351401</v>
       </c>
@@ -1175,15 +1279,15 @@
         <v>0.35945712894507698</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>679.7334308351401</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>462037.53699491016</v>
       </c>
       <c r="M28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>679.7334308351401</v>
       </c>
     </row>
@@ -1197,6 +1301,10 @@
       <c r="C29">
         <v>2201</v>
       </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
       <c r="H29">
         <v>2807.7982757333498</v>
       </c>
@@ -1207,15 +1315,15 @@
         <v>0.27569208347721702</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>606.79827573334978</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>368204.14743296639</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>606.79827573334978</v>
       </c>
     </row>
@@ -1229,6 +1337,10 @@
       <c r="C30">
         <v>2433</v>
       </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
       <c r="H30">
         <v>3275.0234691406899</v>
       </c>
@@ -1239,15 +1351,15 @@
         <v>0.34608445094151002</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>842.02346914069994</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>709003.52258373925</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>842.02346914069994</v>
       </c>
     </row>
@@ -1261,6 +1373,10 @@
       <c r="C31">
         <v>2915</v>
       </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>482</v>
+      </c>
       <c r="H31">
         <v>3973.0769921164901</v>
       </c>
@@ -1271,15 +1387,15 @@
         <v>0.362976669679758</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1058.0769921164901</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1119526.9212462793</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1058.0769921164901</v>
       </c>
     </row>
@@ -1293,6 +1409,10 @@
       <c r="C32">
         <v>3417</v>
       </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
       <c r="H32">
         <v>4435.2961796602203</v>
       </c>
@@ -1303,15 +1423,15 @@
         <v>0.298008832209606</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1018.2961796602303</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1036927.1095106201</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1018.2961796602303</v>
       </c>
     </row>
@@ -1325,6 +1445,10 @@
       <c r="C33">
         <v>3903</v>
       </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
       <c r="H33">
         <v>4878.0542045820403</v>
       </c>
@@ -1335,15 +1459,15 @@
         <v>0.24982172805073999</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>975.05420458205026</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>950730.70187313471</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>975.05420458205026</v>
       </c>
     </row>
@@ -1357,6 +1481,10 @@
       <c r="C34">
         <v>4256</v>
       </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
       <c r="H34">
         <v>4810.0472507514796</v>
       </c>
@@ -1367,15 +1495,15 @@
         <v>0.13018027508258401</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>554.04725075147962</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>306968.35606527294</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>554.04725075147962</v>
       </c>
     </row>
@@ -1389,6 +1517,10 @@
       <c r="C35">
         <v>4579</v>
       </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
       <c r="H35">
         <v>6455.2755830205697</v>
       </c>
@@ -1399,15 +1531,15 @@
         <v>0.40975662437662702</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1876.2755830205797</v>
       </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3520410.063439216</v>
       </c>
       <c r="M35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1876.2755830205797</v>
       </c>
     </row>
@@ -1421,6 +1553,10 @@
       <c r="C36">
         <v>5717</v>
       </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1138</v>
+      </c>
       <c r="H36">
         <v>7919.79062048989</v>
       </c>
@@ -1431,15 +1567,15 @@
         <v>0.385305338549919</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2202.79062048989</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4852286.5177182341</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2202.79062048989</v>
       </c>
     </row>
@@ -1453,6 +1589,10 @@
       <c r="C37">
         <v>6834</v>
       </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1117</v>
+      </c>
       <c r="H37">
         <v>9150.3235266536103</v>
       </c>
@@ -1463,15 +1603,15 @@
         <v>0.33894110720714299</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2316.3235266536203</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5365354.6801290652</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2316.3235266536203</v>
       </c>
     </row>
@@ -1485,6 +1625,10 @@
       <c r="C38">
         <v>7910</v>
       </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1076</v>
+      </c>
       <c r="H38">
         <v>9940.2512583079297</v>
       </c>
@@ -1495,15 +1639,15 @@
         <v>0.25666893278229203</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2030.2512583079397</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4121920.1718609724</v>
       </c>
       <c r="M38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2030.2512583079397</v>
       </c>
     </row>
@@ -1517,6 +1661,10 @@
       <c r="C39">
         <v>9056</v>
       </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1146</v>
+      </c>
       <c r="H39">
         <v>11025.6109188349</v>
       </c>
@@ -1527,15 +1675,15 @@
         <v>0.217492371779479</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1969.6109188349001</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3879367.1715936596</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1969.6109188349001</v>
       </c>
     </row>
@@ -1549,6 +1697,10 @@
       <c r="C40">
         <v>10278</v>
       </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1222</v>
+      </c>
       <c r="H40">
         <v>12060.237198119799</v>
       </c>
@@ -1559,15 +1711,15 @@
         <v>0.17340311326326999</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1782.2371981197994</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3176369.4303619131</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1782.2371981197994</v>
       </c>
     </row>
@@ -1581,6 +1733,10 @@
       <c r="C41">
         <v>11130</v>
       </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>852</v>
+      </c>
       <c r="H41">
         <v>13276.203955810999</v>
       </c>
@@ -1591,15 +1747,15 @@
         <v>0.19283054409803099</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2146.2039558110991</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4606191.4199392106</v>
       </c>
       <c r="M41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2146.2039558110991</v>
       </c>
     </row>
@@ -1613,6 +1769,10 @@
       <c r="C42">
         <v>12056</v>
       </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>926</v>
+      </c>
       <c r="H42">
         <v>15486.6077591639</v>
       </c>
@@ -1623,15 +1783,15 @@
         <v>0.28455605168910902</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3430.6077591640005</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11769069.597236246</v>
       </c>
       <c r="M42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3430.6077591640005</v>
       </c>
     </row>
@@ -1645,6 +1805,10 @@
       <c r="C43">
         <v>13717</v>
       </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1661</v>
+      </c>
       <c r="H43">
         <v>17415.419931554999</v>
       </c>
@@ -1655,15 +1819,15 @@
         <v>0.26962309043923899</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3698.4199315549995</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13678309.990123287</v>
       </c>
       <c r="M43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3698.4199315549995</v>
       </c>
     </row>
@@ -1677,6 +1841,10 @@
       <c r="C44">
         <v>15927</v>
       </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>2210</v>
+      </c>
       <c r="H44">
         <v>19973.288716096598</v>
       </c>
@@ -1687,15 +1855,15 @@
         <v>0.25405215772566198</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4046.2887160965984</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16372452.374010658</v>
       </c>
       <c r="M44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4046.2887160965984</v>
       </c>
     </row>
@@ -1709,6 +1877,10 @@
       <c r="C45">
         <v>17857</v>
       </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1930</v>
+      </c>
       <c r="H45">
         <v>21482.874347344099</v>
       </c>
@@ -1719,15 +1891,15 @@
         <v>0.20305058785597599</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3625.8743473440991</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13146964.782727996</v>
       </c>
       <c r="M45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3625.8743473440991</v>
       </c>
     </row>
@@ -1741,6 +1913,10 @@
       <c r="C46">
         <v>19638</v>
       </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1781</v>
+      </c>
       <c r="H46">
         <v>21908.9023628348</v>
       </c>
@@ -1751,15 +1927,15 @@
         <v>0.115638169000653</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2270.9023628348004</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5156997.5415286794</v>
       </c>
       <c r="M46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2270.9023628348004</v>
       </c>
     </row>
@@ -1773,6 +1949,10 @@
       <c r="C47">
         <v>20727</v>
       </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1089</v>
+      </c>
       <c r="H47">
         <v>23283.2800692858</v>
       </c>
@@ -1783,15 +1963,15 @@
         <v>0.12333092436367001</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2556.2800692858982</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6534567.7926283162</v>
       </c>
       <c r="M47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2556.2800692858982</v>
       </c>
     </row>
@@ -1805,6 +1985,10 @@
       <c r="C48">
         <v>22169</v>
       </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1442</v>
+      </c>
       <c r="H48">
         <v>25610.898011054502</v>
       </c>
@@ -1815,15 +1999,15 @@
         <v>0.15525725161507101</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3441.8980110545999</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11846661.91850161</v>
       </c>
       <c r="M48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3441.8980110545999</v>
       </c>
     </row>
@@ -1837,6 +2021,10 @@
       <c r="C49">
         <v>23430</v>
       </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1261</v>
+      </c>
       <c r="H49">
         <v>27852.263321403199</v>
       </c>
@@ -1847,15 +2035,15 @@
         <v>0.18874363300909999</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4422.2633214032976</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19556412.883828927</v>
       </c>
       <c r="M49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4422.2633214032976</v>
       </c>
     </row>
@@ -1869,6 +2057,10 @@
       <c r="C50">
         <v>25262</v>
       </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1832</v>
+      </c>
       <c r="H50">
         <v>31195.4871204392</v>
       </c>
@@ -1879,15 +2071,15 @@
         <v>0.234877963757393</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5933.4871204392985</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35206269.408419035</v>
       </c>
       <c r="M50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5933.4871204392985</v>
       </c>
     </row>
@@ -1901,6 +2093,10 @@
       <c r="C51">
         <v>28320</v>
       </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>3058</v>
+      </c>
       <c r="H51">
         <v>32746.654517634699</v>
       </c>
@@ -1911,15 +2107,15 @@
         <v>0.15630842223286301</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4426.654517634699</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19595270.218495689</v>
       </c>
       <c r="M51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4426.654517634699</v>
       </c>
     </row>
@@ -1933,6 +2129,10 @@
       <c r="C52">
         <v>30425</v>
       </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>2105</v>
+      </c>
       <c r="H52">
         <v>36495.186269218102</v>
       </c>
@@ -1943,15 +2143,15 @@
         <v>0.19951310663001401</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6070.1862692182003</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36847161.343005173</v>
       </c>
       <c r="M52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6070.1862692182003</v>
       </c>
     </row>
@@ -1965,6 +2165,10 @@
       <c r="C53">
         <v>33682</v>
       </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>3257</v>
+      </c>
       <c r="H53">
         <v>39272.692996092403</v>
       </c>
@@ -1975,15 +2179,15 @@
         <v>0.16598459106028199</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5590.6929960925045</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31255848.176557783</v>
       </c>
       <c r="M53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5590.6929960925045</v>
       </c>
     </row>
@@ -1997,6 +2201,10 @@
       <c r="C54">
         <v>36599</v>
       </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>2917</v>
+      </c>
       <c r="H54">
         <v>41503.100476129097</v>
       </c>
@@ -2007,15 +2215,15 @@
         <v>0.13399547736629699</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4904.1004761291988</v>
       </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24050201.479970634</v>
       </c>
       <c r="M54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4904.1004761291988</v>
       </c>
     </row>
@@ -2029,6 +2237,10 @@
       <c r="C55">
         <v>38654</v>
       </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
       <c r="H55">
         <v>43271.6538323118</v>
       </c>
@@ -2039,15 +2251,15 @@
         <v>0.11946121571666</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4617.6538323118002</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21322726.915063854</v>
       </c>
       <c r="M55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4617.6538323118002</v>
       </c>
     </row>
@@ -2061,6 +2273,10 @@
       <c r="C56">
         <v>40581</v>
       </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1927</v>
+      </c>
       <c r="H56">
         <v>46312.203145535903</v>
       </c>
@@ -2071,15 +2287,15 @@
         <v>0.141228731316033</v>
       </c>
       <c r="K56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5731.2031455359029</v>
       </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32846689.495400626</v>
       </c>
       <c r="M56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5731.2031455359029</v>
       </c>
     </row>
@@ -2093,6 +2309,10 @@
       <c r="C57">
         <v>43079</v>
       </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>2498</v>
+      </c>
       <c r="H57">
         <v>49479.195396724797</v>
       </c>
@@ -2103,15 +2323,15 @@
         <v>0.14856880142818599</v>
       </c>
       <c r="K57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6400.1953967247973</v>
       </c>
       <c r="L57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40962501.116257288</v>
       </c>
       <c r="M57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6400.1953967247973</v>
       </c>
     </row>
@@ -2125,6 +2345,10 @@
       <c r="C58">
         <v>45757</v>
       </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>2678</v>
+      </c>
       <c r="H58">
         <v>53022.2882925874</v>
       </c>
@@ -2135,15 +2359,15 @@
         <v>0.15877982150463299</v>
       </c>
       <c r="K58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7265.2882925875019</v>
       </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52784413.974409021</v>
       </c>
       <c r="M58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7265.2882925875019</v>
       </c>
     </row>
@@ -2157,6 +2381,10 @@
       <c r="C59">
         <v>49492</v>
       </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>3735</v>
+      </c>
       <c r="H59">
         <v>58323.252101986996</v>
       </c>
@@ -2167,15 +2395,15 @@
         <v>0.17843797183356899</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8831.2521019870983</v>
       </c>
       <c r="L59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77991013.688851535</v>
       </c>
       <c r="M59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8831.2521019870983</v>
       </c>
     </row>
@@ -2189,6 +2417,10 @@
       <c r="C60">
         <v>52995</v>
       </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>3503</v>
+      </c>
       <c r="H60">
         <v>62404.467023680998</v>
       </c>
@@ -2199,15 +2431,15 @@
         <v>0.17755386401888901</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9409.4670236810998</v>
       </c>
       <c r="L60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88538069.669742048</v>
       </c>
       <c r="M60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9409.4670236810998</v>
       </c>
     </row>
@@ -2221,6 +2453,10 @@
       <c r="C61">
         <v>58509</v>
       </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>5514</v>
+      </c>
       <c r="H61">
         <v>66321.430422089703</v>
       </c>
@@ -2231,15 +2467,15 @@
         <v>0.133525276830741</v>
       </c>
       <c r="K61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7812.4304220898048</v>
       </c>
       <c r="L61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61034069.099994287</v>
       </c>
       <c r="M61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7812.4304220898048</v>
       </c>
     </row>
@@ -2253,6 +2489,10 @@
       <c r="C62">
         <v>61888</v>
       </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>3379</v>
+      </c>
       <c r="H62">
         <v>71251.658143341105</v>
       </c>
@@ -2263,15 +2503,15 @@
         <v>0.15130006048573499</v>
       </c>
       <c r="K62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9363.6581433411047</v>
       </c>
       <c r="L62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87678093.825358182</v>
       </c>
       <c r="M62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9363.6581433411047</v>
       </c>
     </row>
@@ -2285,6 +2525,10 @@
       <c r="C63">
         <v>66501</v>
       </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>4613</v>
+      </c>
       <c r="H63">
         <v>77743.544184548198</v>
       </c>
@@ -2295,15 +2539,15 @@
         <v>0.16905827257557299</v>
       </c>
       <c r="K63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11242.544184548198</v>
       </c>
       <c r="L63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126394799.74151851</v>
       </c>
       <c r="M63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11242.544184548198</v>
       </c>
     </row>
@@ -2317,6 +2561,10 @@
       <c r="C64">
         <v>71886</v>
       </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>5385</v>
+      </c>
       <c r="H64">
         <v>83988.143421792993</v>
       </c>
@@ -2327,15 +2575,15 @@
         <v>0.16835188244989299</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12102.143421792993</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>146461875.40164742</v>
       </c>
       <c r="M64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12102.143421792993</v>
       </c>
     </row>
@@ -2349,6 +2597,10 @@
       <c r="C65">
         <v>78162</v>
       </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>6276</v>
+      </c>
       <c r="H65">
         <v>91713.752469221101</v>
       </c>
@@ -2359,15 +2611,15 @@
         <v>0.17338031868709999</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13551.752469221203</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183649994.98704296</v>
       </c>
       <c r="M65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13551.752469221203</v>
       </c>
     </row>
@@ -2381,6 +2633,10 @@
       <c r="C66">
         <v>85380</v>
       </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>7218</v>
+      </c>
       <c r="H66">
         <v>98520.960868504801</v>
       </c>
@@ -2391,15 +2647,15 @@
         <v>0.15391146484545401</v>
       </c>
       <c r="K66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13140.960868504902</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172684852.54757711</v>
       </c>
       <c r="M66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13140.960868504902</v>
       </c>
     </row>
@@ -2413,6 +2669,10 @@
       <c r="C67">
         <v>91299</v>
       </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>5919</v>
+      </c>
       <c r="H67">
         <v>106695.176970776</v>
       </c>
@@ -2423,15 +2683,15 @@
         <v>0.16863467256789899</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15396.176970775996</v>
       </c>
       <c r="L67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>237042265.31545311</v>
       </c>
       <c r="M67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15396.176970775996</v>
       </c>
     </row>
@@ -2445,6 +2705,10 @@
       <c r="C68">
         <v>96396</v>
       </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F80" si="4" xml:space="preserve"> C68-C67</f>
+        <v>5097</v>
+      </c>
       <c r="H68">
         <v>112856.36362022599</v>
       </c>
@@ -2455,15 +2719,15 @@
         <v>0.17075774534448501</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16460.363620226097</v>
       </c>
       <c r="L68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270943570.51006275</v>
       </c>
       <c r="M68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16460.363620226097</v>
       </c>
     </row>
@@ -2477,6 +2741,10 @@
       <c r="C69">
         <v>101147</v>
       </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>4751</v>
+      </c>
       <c r="H69">
         <v>122852.153795563</v>
       </c>
@@ -2487,15 +2755,15 @@
         <v>0.21459018849361</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21705.153795564009</v>
       </c>
       <c r="L69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>471113701.2890867</v>
       </c>
       <c r="M69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21705.153795564009</v>
       </c>
     </row>
@@ -2509,6 +2777,10 @@
       <c r="C70">
         <v>107780</v>
       </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>6633</v>
+      </c>
       <c r="H70">
         <v>131516.68296697101</v>
       </c>
@@ -2519,15 +2791,15 @@
         <v>0.22023272376110301</v>
       </c>
       <c r="K70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23736.682966971013</v>
       </c>
       <c r="L70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>563430118.27449179</v>
       </c>
       <c r="M70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23736.682966971013</v>
       </c>
     </row>
@@ -2541,6 +2813,10 @@
       <c r="C71">
         <v>114715</v>
       </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>6935</v>
+      </c>
       <c r="H71">
         <v>142132.60053938301</v>
       </c>
@@ -2551,15 +2827,15 @@
         <v>0.23900623753984601</v>
       </c>
       <c r="K71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27417.600539383013</v>
       </c>
       <c r="L71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>751724819.33717573</v>
       </c>
       <c r="M71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27417.600539383013</v>
       </c>
     </row>
@@ -2573,6 +2849,10 @@
       <c r="C72">
         <v>125218</v>
       </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>10503</v>
+      </c>
       <c r="H72">
         <v>152542.90686705799</v>
       </c>
@@ -2583,15 +2863,15 @@
         <v>0.21821868155583601</v>
       </c>
       <c r="K72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27324.906867058991</v>
       </c>
       <c r="L72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>746650535.29344761</v>
       </c>
       <c r="M72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27324.906867058991</v>
       </c>
     </row>
@@ -2605,6 +2885,10 @@
       <c r="C73">
         <v>135106</v>
       </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>9888</v>
+      </c>
       <c r="H73">
         <v>165805.39455936101</v>
       </c>
@@ -2615,15 +2899,15 @@
         <v>0.227224509343491</v>
       </c>
       <c r="K73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30699.394559362001</v>
       </c>
       <c r="L73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>942452826.31138527</v>
       </c>
       <c r="M73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30699.394559362001</v>
       </c>
     </row>
@@ -2637,6 +2921,10 @@
       <c r="C74">
         <v>145328</v>
       </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>10222</v>
+      </c>
       <c r="H74">
         <v>176604.71229041601</v>
       </c>
@@ -2647,15 +2935,15 @@
         <v>0.21521463372795899</v>
       </c>
       <c r="K74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31276.712290416006</v>
       </c>
       <c r="L74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>978232731.6974597</v>
       </c>
       <c r="M74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31276.712290416006</v>
       </c>
     </row>
@@ -2669,6 +2957,10 @@
       <c r="C75">
         <v>155939</v>
       </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>10611</v>
+      </c>
       <c r="H75">
         <v>190960.713419418</v>
       </c>
@@ -2679,15 +2971,15 @@
         <v>0.224585981822499</v>
       </c>
       <c r="K75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35021.713419418986</v>
       </c>
       <c r="L75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1226520410.8319118</v>
       </c>
       <c r="M75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35021.713419418986</v>
       </c>
     </row>
@@ -2701,6 +2993,10 @@
       <c r="C76">
         <v>162699</v>
       </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>6760</v>
+      </c>
       <c r="H76">
         <v>203734.49218616899</v>
       </c>
@@ -2711,15 +3007,15 @@
         <v>0.25221723665277301</v>
       </c>
       <c r="K76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41035.492186169984</v>
       </c>
       <c r="L76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1683911618.9612179</v>
       </c>
       <c r="M76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41035.492186169984</v>
       </c>
     </row>
@@ -2733,6 +3029,10 @@
       <c r="C77">
         <v>168331</v>
       </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>5632</v>
+      </c>
       <c r="H77">
         <v>221517.851606777</v>
       </c>
@@ -2743,15 +3043,15 @@
         <v>0.31596587441872098</v>
       </c>
       <c r="K77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53186.851606776996</v>
       </c>
       <c r="L77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2828841183.8413167</v>
       </c>
       <c r="M77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53186.851606776996</v>
       </c>
     </row>
@@ -2765,6 +3065,10 @@
       <c r="C78">
         <v>177589</v>
       </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>9258</v>
+      </c>
       <c r="H78">
         <v>235768.96988398099</v>
       </c>
@@ -2775,15 +3079,15 @@
         <v>0.32761021169093602</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:K80" si="3" xml:space="preserve"> ABS(H78-I78)</f>
+        <f t="shared" ref="K78:K80" si="5" xml:space="preserve"> ABS(H78-I78)</f>
         <v>58179.969883980986</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L80" si="4" xml:space="preserve"> (I78-H78)^2</f>
+        <f t="shared" ref="L78:L80" si="6" xml:space="preserve"> (I78-H78)^2</f>
         <v>3384908895.7009344</v>
       </c>
       <c r="M78">
-        <f t="shared" ref="M78:M80" si="5" xml:space="preserve"> SQRT(L78)</f>
+        <f t="shared" ref="M78:M80" si="7" xml:space="preserve"> SQRT(L78)</f>
         <v>58179.969883980986</v>
       </c>
     </row>
@@ -2797,6 +3101,10 @@
       <c r="C79">
         <v>188974</v>
       </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>11385</v>
+      </c>
       <c r="H79">
         <v>255942.451841331</v>
       </c>
@@ -2807,15 +3115,15 @@
         <v>0.35437918359843901</v>
       </c>
       <c r="K79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66968.451841331989</v>
       </c>
       <c r="L79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4484773542.0248022</v>
       </c>
       <c r="M79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>66968.451841331989</v>
       </c>
     </row>
@@ -2829,6 +3137,10 @@
       <c r="C80">
         <v>202918</v>
       </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>13944</v>
+      </c>
       <c r="H80">
         <v>273930.20266882901</v>
       </c>
@@ -2839,15 +3151,15 @@
         <v>0.349955167451035</v>
       </c>
       <c r="K80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71012.202668829006</v>
       </c>
       <c r="L80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5042732927.8788452</v>
       </c>
       <c r="M80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>71012.202668829006</v>
       </c>
     </row>
